--- a/server/LISTAS/mi/GANCHO CONTRAVIENTO.xlsx
+++ b/server/LISTAS/mi/GANCHO CONTRAVIENTO.xlsx
@@ -778,7 +778,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45289</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>

--- a/server/LISTAS/mi/GANCHO CONTRAVIENTO.xlsx
+++ b/server/LISTAS/mi/GANCHO CONTRAVIENTO.xlsx
@@ -778,7 +778,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -853,7 +853,7 @@
       </c>
       <c r="C30" s="27" t="n"/>
       <c r="D30" s="28" t="n">
-        <v>60.95</v>
+        <v>120.069</v>
       </c>
       <c r="E30" s="29" t="n"/>
       <c r="F30" s="29" t="n"/>
@@ -871,7 +871,7 @@
       </c>
       <c r="C31" s="27" t="n"/>
       <c r="D31" s="28" t="n">
-        <v>65.27500000000001</v>
+        <v>128.588</v>
       </c>
       <c r="E31" s="29" t="n"/>
       <c r="F31" s="29" t="n"/>
@@ -889,7 +889,7 @@
       </c>
       <c r="C32" s="27" t="n"/>
       <c r="D32" s="28" t="n">
-        <v>71.539</v>
+        <v>140.928</v>
       </c>
       <c r="E32" s="29" t="n"/>
       <c r="F32" s="29" t="n"/>
@@ -907,7 +907,7 @@
       </c>
       <c r="C33" s="27" t="n"/>
       <c r="D33" s="28" t="n">
-        <v>105.637</v>
+        <v>208.099</v>
       </c>
       <c r="E33" s="29" t="n"/>
       <c r="F33" s="29" t="n"/>
@@ -925,7 +925,7 @@
       </c>
       <c r="C34" s="27" t="n"/>
       <c r="D34" s="28" t="n">
-        <v>136.682</v>
+        <v>269.256</v>
       </c>
       <c r="E34" s="29" t="n"/>
       <c r="F34" s="29" t="n"/>
@@ -943,7 +943,7 @@
       </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="28" t="n">
-        <v>192.737</v>
+        <v>379.682</v>
       </c>
       <c r="E35" s="29" t="n"/>
       <c r="F35" s="29" t="n"/>
@@ -961,7 +961,7 @@
       </c>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="28" t="n">
-        <v>279.664</v>
+        <v>550.922</v>
       </c>
       <c r="E36" s="29" t="n"/>
       <c r="F36" s="29" t="n"/>
@@ -979,7 +979,7 @@
       </c>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="28" t="n">
-        <v>428.786</v>
+        <v>844.688</v>
       </c>
       <c r="E37" s="29" t="n"/>
       <c r="F37" s="29" t="n"/>
@@ -1016,17 +1016,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/GANCHO CONTRAVIENTO.xlsx
+++ b/server/LISTAS/mi/GANCHO CONTRAVIENTO.xlsx
@@ -778,7 +778,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>

--- a/server/LISTAS/mi/GANCHO CONTRAVIENTO.xlsx
+++ b/server/LISTAS/mi/GANCHO CONTRAVIENTO.xlsx
@@ -778,7 +778,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -1016,17 +1016,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/GANCHO CONTRAVIENTO.xlsx
+++ b/server/LISTAS/mi/GANCHO CONTRAVIENTO.xlsx
@@ -778,7 +778,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -1016,17 +1016,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/GANCHO CONTRAVIENTO.xlsx
+++ b/server/LISTAS/mi/GANCHO CONTRAVIENTO.xlsx
@@ -778,7 +778,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -1016,17 +1016,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/GANCHO CONTRAVIENTO.xlsx
+++ b/server/LISTAS/mi/GANCHO CONTRAVIENTO.xlsx
@@ -778,7 +778,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -853,7 +853,7 @@
       </c>
       <c r="C30" s="27" t="n"/>
       <c r="D30" s="28" t="n">
-        <v>60.95</v>
+        <v>120.069</v>
       </c>
       <c r="E30" s="29" t="n"/>
       <c r="F30" s="29" t="n"/>
@@ -871,7 +871,7 @@
       </c>
       <c r="C31" s="27" t="n"/>
       <c r="D31" s="28" t="n">
-        <v>65.27500000000001</v>
+        <v>128.588</v>
       </c>
       <c r="E31" s="29" t="n"/>
       <c r="F31" s="29" t="n"/>
@@ -889,7 +889,7 @@
       </c>
       <c r="C32" s="27" t="n"/>
       <c r="D32" s="28" t="n">
-        <v>71.539</v>
+        <v>140.928</v>
       </c>
       <c r="E32" s="29" t="n"/>
       <c r="F32" s="29" t="n"/>
@@ -907,7 +907,7 @@
       </c>
       <c r="C33" s="27" t="n"/>
       <c r="D33" s="28" t="n">
-        <v>105.637</v>
+        <v>208.099</v>
       </c>
       <c r="E33" s="29" t="n"/>
       <c r="F33" s="29" t="n"/>
@@ -925,7 +925,7 @@
       </c>
       <c r="C34" s="27" t="n"/>
       <c r="D34" s="28" t="n">
-        <v>136.682</v>
+        <v>269.256</v>
       </c>
       <c r="E34" s="29" t="n"/>
       <c r="F34" s="29" t="n"/>
@@ -943,7 +943,7 @@
       </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="28" t="n">
-        <v>192.737</v>
+        <v>379.682</v>
       </c>
       <c r="E35" s="29" t="n"/>
       <c r="F35" s="29" t="n"/>
@@ -961,7 +961,7 @@
       </c>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="28" t="n">
-        <v>279.664</v>
+        <v>550.922</v>
       </c>
       <c r="E36" s="29" t="n"/>
       <c r="F36" s="29" t="n"/>
@@ -979,7 +979,7 @@
       </c>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="28" t="n">
-        <v>428.786</v>
+        <v>844.688</v>
       </c>
       <c r="E37" s="29" t="n"/>
       <c r="F37" s="29" t="n"/>
@@ -1016,17 +1016,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
